--- a/데이터베이스.xlsx
+++ b/데이터베이스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="멀티 플레이" sheetId="5" r:id="rId6"/>
     <sheet name="계급" sheetId="13" r:id="rId7"/>
     <sheet name="멀티 게임 정보" sheetId="14" r:id="rId8"/>
+    <sheet name="멀티 맵 정보_5" sheetId="15" r:id="rId9"/>
+    <sheet name="멀티 맵 정보_7" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마지막 접속 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속한 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구글메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +67,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 클리어 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임(for)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 번호(for)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 번호(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격(달러)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격(원화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 플레이 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진등록 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계급 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천재(genius)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영재(talent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수재(smart)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범재(common)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔재(dunce)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보(fool)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계급명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 게임정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 시간(가위, 바위, 보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>열쇠개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,139 +219,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 클리어 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임(for)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 번호(for)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임(pri)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지 번호(pri)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격(달러)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격(원화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티 플레이 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진등록 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계급 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천재(genius)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영재(talent)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수재(smart)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범재(common)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔재(dunce)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바보(fool)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계급명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티 게임정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택 시간</t>
+    <t>멀티 플레이 맵 정보_5X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 플레이 맵 정보_7X7(보류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준_맨처음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속한 시간_열쇠부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 접속 시간(나간 시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,11 +286,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,13 +578,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
@@ -575,7 +604,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -590,17 +619,51 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +677,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,17 +687,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -659,22 +722,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
@@ -692,7 +755,7 @@
   <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -702,42 +765,43 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -756,27 +820,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -800,37 +864,37 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +908,7 @@
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -859,35 +923,40 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -917,34 +986,78 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/데이터베이스.xlsx
+++ b/데이터베이스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="아이템" sheetId="6" r:id="rId5"/>
     <sheet name="멀티 플레이" sheetId="5" r:id="rId6"/>
     <sheet name="계급" sheetId="13" r:id="rId7"/>
-    <sheet name="멀티 게임 정보" sheetId="14" r:id="rId8"/>
-    <sheet name="멀티 맵 정보_5" sheetId="15" r:id="rId9"/>
-    <sheet name="멀티 맵 정보_7" sheetId="16" r:id="rId10"/>
+    <sheet name="계급 계산" sheetId="18" r:id="rId8"/>
+    <sheet name="멀티 게임 정보" sheetId="14" r:id="rId9"/>
+    <sheet name="멀티 맵 정보_5" sheetId="15" r:id="rId10"/>
+    <sheet name="멀티 맵 정보_7" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,49 +34,644 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="183">
   <si>
     <t>계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성날짜(시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이스북 계정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글플레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 클리어 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임(for)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 번호(for)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 번호(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격(달러)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격(원화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 플레이 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진등록 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계급 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천재(genius)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영재(talent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수재(smart)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범재(common)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔재(dunce)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보(fool)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계급명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 게임정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 시간(가위, 바위, 보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열쇠개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 번호(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 플레이 맵 정보_5X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 플레이 맵 정보_7X7(보류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준_맨처음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속한 시간_열쇠부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 접속 시간(나간 시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoincrement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글, 알파벳, 숫자 (특수문자, 공백없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 계정에서 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP, server시간 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default(0)_사진등록X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이스북 계정에서 가져옴, NULL가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>닉네임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성날짜(시간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이스북 계정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싱글플레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 정보</t>
+    <t>2의16승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small_int(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동계산((승/(승+무+패)) * 100), user한테 첫째자리까지 보여짐(둘째자리 반올림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천재2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천재3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영재2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영재3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수재2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수재3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범재2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범재3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔재2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔재3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바보3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut(600)_범재3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본(승)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본(패)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 높은 점수일때(승)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 높은 점수일때(패)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 높은(두계급)일때(승)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 높은(두계급)일때(패)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 낮은 점수일때(승)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 낮은 점수일때(패)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 낮은(두계급)일때(승)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 낮은(두계급)일때(패)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_MAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_MAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGOUT_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PICTURE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE_PLAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICKNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICKNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_CLEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICKNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAR_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOLLAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENG_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300~599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600~899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900~1199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200~1499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_PLAY_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,163 +679,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 클리어 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임(for)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 번호(for)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임(pri)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 번호(pri)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격(달러)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격(원화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티 플레이 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사진등록 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계급 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천재(genius)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영재(talent)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수재(smart)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범재(common)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔재(dunce)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바보(fool)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계급명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티 게임정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택 시간(가위, 바위, 보)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열쇠개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 번호(pri)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티 플레이 맵 정보_5X5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티 플레이 맵 정보_7X7(보류)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준_맨처음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속한 시간_열쇠부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 접속 시간(나간 시간)</t>
+    <t>MAP_SIZE(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_SCORE_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_SCORE_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_LEVEL_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_LEVEL_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂㅂㅂㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_SCORE_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_SCORE_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_LEVEL_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_LEVEL_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_INFO_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_INFO_7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,20 +788,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -286,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +839,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,94 +1130,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B11"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>30</v>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -674,30 +1374,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -709,38 +1432,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
   </sheetData>
@@ -752,50 +1504,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B2:B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -807,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -818,29 +1611,56 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>22</v>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -851,130 +1671,313 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>29</v>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H5"/>
+  <dimension ref="B2:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="M4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="P4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
+      <c r="S4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="3">
+        <v>900</v>
+      </c>
+      <c r="L5" s="3">
+        <v>800</v>
+      </c>
+      <c r="M5" s="3">
+        <v>700</v>
+      </c>
+      <c r="N5" s="3">
         <v>600</v>
       </c>
-      <c r="D5">
+      <c r="O5" s="3">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="P5" s="3">
         <v>400</v>
       </c>
-      <c r="F5">
+      <c r="Q5" s="3">
         <v>300</v>
       </c>
-      <c r="G5">
+      <c r="R5" s="3">
         <v>200</v>
       </c>
-      <c r="H5">
+      <c r="S5" s="3">
         <v>100</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -986,74 +1989,455 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/데이터베이스.xlsx
+++ b/데이터베이스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="188">
   <si>
     <t>계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>별개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택 시간(가위, 바위, 보)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>double(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>defalut(0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -611,10 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KR_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ENG_LEVEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,75 +647,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>제한 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_SIZE(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_SCORE_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_SCORE_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_LEVEL_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIGH_LEVEL_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅂㅂㅂㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_SCORE_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_SCORE_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_LEVEL_WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOW_LEVEL_LOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTI_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIMIT_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_INFO_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP_INFO_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MULTI_PLAY_INFO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제한 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP_SIZE(pri)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH_SCORE_WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH_SCORE_LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH_LEVEL_WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIGH_LEVEL_LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅂㅂㅂㅂ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_SCORE_WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_SCORE_LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_LEVEL_WIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOW_LEVEL_LOSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MULTI_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOVE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIMIT_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP_INFO_5</t>
+    <t>double(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR_LEVEL(PRI)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -743,27 +775,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP_INFO_7</t>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 번호(pri)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1153,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1149,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -1171,13 +1191,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -1185,83 +1205,83 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1275,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1287,32 +1307,34 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" t="s">
-        <v>124</v>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
+      <c r="B5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1326,44 +1348,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" t="s">
-        <v>124</v>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1402,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1392,35 +1417,35 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1460,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1448,48 +1473,48 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1504,91 +1529,94 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
+      <c r="F9" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1600,67 +1628,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1715,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,94 +1728,94 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1830,7 @@
   <dimension ref="B2:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1810,97 +1851,97 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="O4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="R4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="U4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>1700</v>
@@ -1957,27 +1998,36 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>144</v>
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1992,7 +2042,7 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2007,44 +2057,44 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="J4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" t="s">
         <v>151</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3">
         <v>24</v>
@@ -2065,15 +2115,15 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3">
         <v>-24</v>
@@ -2094,18 +2144,18 @@
         <v>-4</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3">
         <v>-6</v>
@@ -2126,15 +2176,15 @@
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3">
         <v>-6</v>
@@ -2155,15 +2205,15 @@
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3">
         <v>-6</v>
@@ -2184,15 +2234,15 @@
         <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3">
         <v>-6</v>
@@ -2213,18 +2263,18 @@
         <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
@@ -2245,15 +2295,15 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -2274,15 +2324,15 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -2303,15 +2353,15 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3">
         <v>6</v>
@@ -2332,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2400,7 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2362,78 +2412,82 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" t="s">
-        <v>174</v>
+      <c r="G7" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">

--- a/데이터베이스.xlsx
+++ b/데이터베이스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="697"/>
   </bookViews>
   <sheets>
     <sheet name="계정" sheetId="1" r:id="rId1"/>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
